--- a/biology/Virologie/Virus_de_la_mosaïque_de_la_tomate/Virus_de_la_mosaïque_de_la_tomate.xlsx
+++ b/biology/Virologie/Virus_de_la_mosaïque_de_la_tomate/Virus_de_la_mosaïque_de_la_tomate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_de_la_mosa%C3%AFque_de_la_tomate</t>
+          <t>Virus_de_la_mosaïque_de_la_tomate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tomato mosaic virus
 Le virus de la mosaïque de la tomate, ou ToMV acronyme de Tomato mosaic virus, est un phytovirus pathogène, qui affecte principalement les cultures de tomate. Il est classé dans le genre des Tobamovirus, et apparenté au virus de la mosaïque du tabac qui est l'espèce-type de ce genre.
